--- a/Portfolio_making/output_riskfolio/portfolio_results_clean.xlsx
+++ b/Portfolio_making/output_riskfolio/portfolio_results_clean.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weight_Allocation" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stock_Table_MVP" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stock_Table_OPR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stock_Table_MinimumVP" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stock_Table_MeanVP" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portfolio_Summary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -444,12 +444,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Min-Risk</t>
+          <t>Minimum Risk</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Opt-Risk</t>
+          <t>Mean Risk</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MVP</t>
+          <t>Minimum Variance</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1415,7 +1415,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OPR (MaxSharpe)</t>
+          <t>Mean Variance</t>
         </is>
       </c>
       <c r="B3" t="n">

--- a/Portfolio_making/output_riskfolio/portfolio_results_clean.xlsx
+++ b/Portfolio_making/output_riskfolio/portfolio_results_clean.xlsx
@@ -463,7 +463,7 @@
         <v>0.131653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.181797</v>
+        <v>0.180649</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>0.034245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21981</v>
+        <v>0.050125</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>0.031873</v>
       </c>
       <c r="C4" t="n">
-        <v>0.045744</v>
+        <v>0.054357</v>
       </c>
     </row>
     <row r="5">
@@ -502,7 +502,7 @@
         <v>0.011966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008463</v>
+        <v>0.004588</v>
       </c>
     </row>
     <row r="6">
@@ -515,7 +515,7 @@
         <v>0.21727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.060019</v>
+        <v>0.160444</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +528,7 @@
         <v>0.24201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.217273</v>
+        <v>0.155967</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         <v>0.029541</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003979</v>
+        <v>0.026768</v>
       </c>
     </row>
     <row r="9">
@@ -554,7 +554,7 @@
         <v>0.054422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.024872</v>
+        <v>0.013998</v>
       </c>
     </row>
     <row r="10">
@@ -567,7 +567,7 @@
         <v>0.022947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006144</v>
+        <v>0.136241</v>
       </c>
     </row>
     <row r="11">
@@ -580,7 +580,7 @@
         <v>0.224074</v>
       </c>
       <c r="C11" t="n">
-        <v>0.231898</v>
+        <v>0.216862</v>
       </c>
     </row>
     <row r="12">
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.7</v>
+        <v>21.3</v>
       </c>
       <c r="C12" t="n">
-        <v>23.72</v>
+        <v>23.06</v>
       </c>
     </row>
     <row r="13">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.74</v>
+        <v>12.53</v>
       </c>
       <c r="C13" t="n">
-        <v>14.99</v>
+        <v>12.93</v>
       </c>
     </row>
   </sheetData>
@@ -692,10 +692,10 @@
         <v>17333.68</v>
       </c>
       <c r="G2" t="n">
-        <v>15705.31</v>
+        <v>15979.62</v>
       </c>
       <c r="H2" t="n">
-        <v>17051.72</v>
+        <v>17349.56</v>
       </c>
     </row>
     <row r="3">
@@ -720,10 +720,10 @@
         <v>4375.21</v>
       </c>
       <c r="G3" t="n">
-        <v>7017.37</v>
+        <v>6981.22</v>
       </c>
       <c r="H3" t="n">
-        <v>4372.63</v>
+        <v>4350.11</v>
       </c>
     </row>
     <row r="4">
@@ -748,10 +748,10 @@
         <v>3562.31</v>
       </c>
       <c r="G4" t="n">
-        <v>855.65</v>
+        <v>849.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3527.49</v>
+        <v>3500.38</v>
       </c>
     </row>
     <row r="5">
@@ -776,10 +776,10 @@
         <v>1192.33</v>
       </c>
       <c r="G5" t="n">
-        <v>653.28</v>
+        <v>656.48</v>
       </c>
       <c r="H5" t="n">
-        <v>1177.59</v>
+        <v>1183.37</v>
       </c>
     </row>
     <row r="6">
@@ -804,10 +804,10 @@
         <v>21312.27</v>
       </c>
       <c r="G6" t="n">
-        <v>1158.92</v>
+        <v>1155.08</v>
       </c>
       <c r="H6" t="n">
-        <v>21175.66</v>
+        <v>21105.46</v>
       </c>
     </row>
     <row r="7">
@@ -832,10 +832,10 @@
         <v>25843.53</v>
       </c>
       <c r="G7" t="n">
-        <v>7377.98</v>
+        <v>7502.89</v>
       </c>
       <c r="H7" t="n">
-        <v>25624.64</v>
+        <v>26058.47</v>
       </c>
     </row>
     <row r="8">
@@ -860,10 +860,10 @@
         <v>3648.86</v>
       </c>
       <c r="G8" t="n">
-        <v>743.73</v>
+        <v>755.74</v>
       </c>
       <c r="H8" t="n">
-        <v>3543.01</v>
+        <v>3600.22</v>
       </c>
     </row>
     <row r="9">
@@ -888,10 +888,10 @@
         <v>6073.08</v>
       </c>
       <c r="G9" t="n">
-        <v>1107.14</v>
+        <v>1137.36</v>
       </c>
       <c r="H9" t="n">
-        <v>5866.65</v>
+        <v>6026.79</v>
       </c>
     </row>
     <row r="10">
@@ -916,10 +916,10 @@
         <v>2545.67</v>
       </c>
       <c r="G10" t="n">
-        <v>149.79</v>
+        <v>147.36</v>
       </c>
       <c r="H10" t="n">
-        <v>2547.21</v>
+        <v>2505.81</v>
       </c>
     </row>
     <row r="11">
@@ -944,10 +944,10 @@
         <v>20075.11</v>
       </c>
       <c r="G11" t="n">
-        <v>1597</v>
+        <v>1616.76</v>
       </c>
       <c r="H11" t="n">
-        <v>19594.11</v>
+        <v>19836.58</v>
       </c>
     </row>
     <row r="12">
@@ -967,7 +967,7 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>104480.74</v>
+        <v>105516.74</v>
       </c>
     </row>
   </sheetData>
@@ -1038,25 +1038,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18179.73</v>
+        <v>18064.94</v>
       </c>
       <c r="C2" t="n">
         <v>12125.76</v>
       </c>
       <c r="D2" t="n">
-        <v>1.499265370961015</v>
+        <v>1.489798964395885</v>
       </c>
       <c r="E2" t="n">
         <v>15965</v>
       </c>
       <c r="F2" t="n">
-        <v>23935.77</v>
+        <v>23784.64</v>
       </c>
       <c r="G2" t="n">
-        <v>15705.31</v>
+        <v>15979.62</v>
       </c>
       <c r="H2" t="n">
-        <v>23546.42</v>
+        <v>23806.42</v>
       </c>
     </row>
     <row r="3">
@@ -1066,25 +1066,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21980.98</v>
+        <v>5012.52</v>
       </c>
       <c r="C3" t="n">
         <v>5495.74</v>
       </c>
       <c r="D3" t="n">
-        <v>3.99963979372532</v>
+        <v>0.9120735038566633</v>
       </c>
       <c r="E3" t="n">
         <v>7021.5</v>
       </c>
       <c r="F3" t="n">
-        <v>28083.47</v>
+        <v>6404.12</v>
       </c>
       <c r="G3" t="n">
-        <v>7017.37</v>
+        <v>6981.22</v>
       </c>
       <c r="H3" t="n">
-        <v>28066.95</v>
+        <v>6367.38</v>
       </c>
     </row>
     <row r="4">
@@ -1094,25 +1094,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4574.39</v>
+        <v>5435.71</v>
       </c>
       <c r="C4" t="n">
         <v>773.13</v>
       </c>
       <c r="D4" t="n">
-        <v>5.916751474846804</v>
+        <v>7.030815849666628</v>
       </c>
       <c r="E4" t="n">
         <v>864.1</v>
       </c>
       <c r="F4" t="n">
-        <v>5112.66</v>
+        <v>6075.33</v>
       </c>
       <c r="G4" t="n">
-        <v>855.65</v>
+        <v>849.08</v>
       </c>
       <c r="H4" t="n">
-        <v>5062.7</v>
+        <v>5969.72</v>
       </c>
     </row>
     <row r="5">
@@ -1122,25 +1122,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.3099999999999</v>
+        <v>458.81</v>
       </c>
       <c r="C5" t="n">
         <v>663.83</v>
       </c>
       <c r="D5" t="n">
-        <v>1.274893631733971</v>
+        <v>0.6911634432014105</v>
       </c>
       <c r="E5" t="n">
         <v>661.45</v>
       </c>
       <c r="F5" t="n">
-        <v>843.28</v>
+        <v>457.17</v>
       </c>
       <c r="G5" t="n">
-        <v>653.28</v>
+        <v>656.48</v>
       </c>
       <c r="H5" t="n">
-        <v>832.86</v>
+        <v>453.73</v>
       </c>
     </row>
     <row r="6">
@@ -1150,25 +1150,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6001.94</v>
+        <v>16044.4</v>
       </c>
       <c r="C6" t="n">
         <v>1189.1</v>
       </c>
       <c r="D6" t="n">
-        <v>5.047461612029799</v>
+        <v>13.49288606623243</v>
       </c>
       <c r="E6" t="n">
         <v>1166.4</v>
       </c>
       <c r="F6" t="n">
-        <v>5887.36</v>
+        <v>15738.1</v>
       </c>
       <c r="G6" t="n">
-        <v>1158.92</v>
+        <v>1155.08</v>
       </c>
       <c r="H6" t="n">
-        <v>5849.62</v>
+        <v>15585.38</v>
       </c>
     </row>
     <row r="7">
@@ -1178,25 +1178,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21727.31</v>
+        <v>15596.73</v>
       </c>
       <c r="C7" t="n">
         <v>6968.08</v>
       </c>
       <c r="D7" t="n">
-        <v>3.118119698370954</v>
+        <v>2.23831125301099</v>
       </c>
       <c r="E7" t="n">
         <v>7441</v>
       </c>
       <c r="F7" t="n">
-        <v>23201.93</v>
+        <v>16655.27</v>
       </c>
       <c r="G7" t="n">
-        <v>7377.98</v>
+        <v>7502.89</v>
       </c>
       <c r="H7" t="n">
-        <v>23005.41</v>
+        <v>16793.8</v>
       </c>
     </row>
     <row r="8">
@@ -1206,25 +1206,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>397.91</v>
+        <v>2676.77</v>
       </c>
       <c r="C8" t="n">
         <v>620.1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6416808118932881</v>
+        <v>4.316650339551638</v>
       </c>
       <c r="E8" t="n">
         <v>765.95</v>
       </c>
       <c r="F8" t="n">
-        <v>491.5</v>
+        <v>3306.34</v>
       </c>
       <c r="G8" t="n">
-        <v>743.73</v>
+        <v>755.74</v>
       </c>
       <c r="H8" t="n">
-        <v>477.24</v>
+        <v>3262.27</v>
       </c>
     </row>
     <row r="9">
@@ -1234,25 +1234,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2487.2</v>
+        <v>1399.8</v>
       </c>
       <c r="C9" t="n">
         <v>1027.03</v>
       </c>
       <c r="D9" t="n">
-        <v>2.421730863995062</v>
+        <v>1.362953112970916</v>
       </c>
       <c r="E9" t="n">
         <v>1146.1</v>
       </c>
       <c r="F9" t="n">
-        <v>2775.55</v>
+        <v>1562.08</v>
       </c>
       <c r="G9" t="n">
-        <v>1107.14</v>
+        <v>1137.36</v>
       </c>
       <c r="H9" t="n">
-        <v>2681.2</v>
+        <v>1550.17</v>
       </c>
     </row>
     <row r="10">
@@ -1262,25 +1262,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>614.41</v>
+        <v>13624.1</v>
       </c>
       <c r="C10" t="n">
         <v>134.94</v>
       </c>
       <c r="D10" t="n">
-        <v>4.553163944016485</v>
+        <v>100.9636507786977</v>
       </c>
       <c r="E10" t="n">
         <v>149.7</v>
       </c>
       <c r="F10" t="n">
-        <v>681.61</v>
+        <v>15114.26</v>
       </c>
       <c r="G10" t="n">
-        <v>149.79</v>
+        <v>147.36</v>
       </c>
       <c r="H10" t="n">
-        <v>682.02</v>
+        <v>14877.58</v>
       </c>
     </row>
     <row r="11">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23189.83</v>
+        <v>21686.22</v>
       </c>
       <c r="C11" t="n">
         <v>1826.29</v>
       </c>
       <c r="D11" t="n">
-        <v>12.69779213730561</v>
+        <v>11.87448079622423</v>
       </c>
       <c r="E11" t="n">
         <v>1636.2</v>
       </c>
       <c r="F11" t="n">
-        <v>20776.13</v>
+        <v>19429.02</v>
       </c>
       <c r="G11" t="n">
-        <v>1597</v>
+        <v>1616.76</v>
       </c>
       <c r="H11" t="n">
-        <v>20278.33</v>
+        <v>19198.18</v>
       </c>
     </row>
     <row r="12">
@@ -1324,11 +1324,11 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>111789.25</v>
+        <v>108526.34</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>110482.76</v>
+        <v>107864.64</v>
       </c>
     </row>
   </sheetData>
@@ -1400,16 +1400,16 @@
         <v>105962.04</v>
       </c>
       <c r="D2" t="n">
-        <v>104480.74</v>
+        <v>105516.74</v>
       </c>
       <c r="E2" t="n">
         <v>5.96</v>
       </c>
       <c r="F2" t="n">
-        <v>4.48</v>
+        <v>5.52</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.4</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="3">
@@ -1422,19 +1422,19 @@
         <v>100000</v>
       </c>
       <c r="C3" t="n">
-        <v>111789.25</v>
+        <v>108526.34</v>
       </c>
       <c r="D3" t="n">
-        <v>110482.76</v>
+        <v>107864.64</v>
       </c>
       <c r="E3" t="n">
-        <v>11.79</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>10.48</v>
+        <v>7.86</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.17</v>
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
